--- a/assets/BTS SIO - 2025 - Annexe 8-1 - Epreuve E5 - Tableau de synthese.xlsx
+++ b/assets/BTS SIO - 2025 - Annexe 8-1 - Epreuve E5 - Tableau de synthese.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Portfolio-main\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Portfolio\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E84DF2-60C1-4780-85BD-6B1CBB0BD281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0716EBC-14E4-461C-A68E-4211E25E9016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>NOM et prénom : Marie Marc-Antoine</t>
   </si>
   <si>
-    <t>▢x SLAM</t>
-  </si>
-  <si>
     <t>Portfolio</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t xml:space="preserve">10/2024 - </t>
+  </si>
+  <si>
+    <t>x SLAM</t>
   </si>
 </sst>
 </file>
@@ -686,9 +686,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -712,51 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1069,69 +1069,69 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.44140625" customWidth="1"/>
-    <col min="44" max="16384" width="10.88671875" style="1"/>
+    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.42578125" customWidth="1"/>
+    <col min="44" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="29"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1139,26 +1139,26 @@
         <v>15</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1180,9 +1180,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="39"/>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1237,17 +1237,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1284,24 +1284,24 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43" t="s">
-        <v>29</v>
+      <c r="E9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1339,26 +1339,26 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1396,26 +1396,26 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1453,15 +1453,15 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1498,7 +1498,7 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
@@ -1543,7 +1543,7 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
@@ -1588,7 +1588,7 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
@@ -1633,7 +1633,7 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
@@ -1678,7 +1678,7 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
@@ -1723,7 +1723,7 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
@@ -1768,17 +1768,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1815,7 +1815,7 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="10"/>
       <c r="C20" s="16"/>
@@ -1860,7 +1860,7 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16"/>
@@ -1904,7 +1904,7 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="10"/>
       <c r="C22" s="16"/>
@@ -1949,7 +1949,7 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16"/>
@@ -1994,7 +1994,7 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="10"/>
       <c r="C24" s="16"/>
@@ -2039,7 +2039,7 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16"/>
@@ -2084,7 +2084,7 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="16"/>
@@ -2129,17 +2129,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2176,28 +2176,28 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>29</v>
+      <c r="D28" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="43" t="s">
-        <v>29</v>
+      <c r="F28" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -2235,7 +2235,7 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16"/>
@@ -2280,7 +2280,7 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="10"/>
       <c r="C30" s="16"/>
@@ -2325,7 +2325,7 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16"/>
@@ -2370,7 +2370,7 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="10"/>
       <c r="C32" s="16"/>
@@ -2415,7 +2415,7 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16"/>
@@ -2460,7 +2460,7 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="18"/>
@@ -2505,7 +2505,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2550,54 +2550,59 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2605,11 +2610,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
